--- a/processed_data/data_gazepath/data_zurich.xlsx
+++ b/processed_data/data_gazepath/data_zurich.xlsx
@@ -560,7 +560,7 @@
         <v>4943</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -594,14 +594,22 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>7849</v>
+      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2133</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -644,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4471</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -674,14 +682,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G8">
-        <v>7249</v>
+        <v>5175</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -690,7 +698,7 @@
         <v>965</v>
       </c>
       <c r="K8">
-        <v>2161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -730,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2581</v>
+        <v>698</v>
       </c>
       <c r="K9">
         <v>263</v>
@@ -810,13 +818,13 @@
         <v>6209</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2226</v>
+        <v>345</v>
       </c>
       <c r="K11">
         <v>661</v>
@@ -859,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -902,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1031,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1154,7 +1162,7 @@
         <v>4993</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1203,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3425</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1246,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3346</v>
+        <v>1019</v>
       </c>
       <c r="K21">
         <v>365</v>
@@ -1289,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1293</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>937</v>
@@ -1375,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>2514</v>
+        <v>933</v>
       </c>
       <c r="K24">
         <v>235</v>
@@ -1461,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1193</v>
@@ -1547,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1886</v>
+        <v>457</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1575,19 +1583,11 @@
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>9169</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2567</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1661,14 +1661,8 @@
       <c r="E31">
         <v>6</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1929,7 +1923,7 @@
         <v>2222</v>
       </c>
       <c r="K37">
-        <v>2276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1954,8 +1948,16 @@
       <c r="E38">
         <v>1</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G38">
+        <v>7659</v>
+      </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2007,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2118,14 +2120,22 @@
       <c r="E42">
         <v>5</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G42">
+        <v>6039</v>
+      </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>3945</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2153,22 +2163,14 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>5973</v>
-      </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4009</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2698,7 +2700,7 @@
         <v>681</v>
       </c>
       <c r="K56">
-        <v>1591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3122,10 +3124,10 @@
         </is>
       </c>
       <c r="G68">
-        <v>7399</v>
+        <v>9195</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3306,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>3957</v>
+        <v>1034</v>
       </c>
       <c r="K73">
         <v>701</v>
@@ -3346,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>376</v>
@@ -3475,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>1011</v>
@@ -3650,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2285</v>
+        <v>1062</v>
       </c>
       <c r="K81">
         <v>695</v>
@@ -3678,8 +3680,16 @@
       <c r="E82">
         <v>3</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G82">
+        <v>4589</v>
+      </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3771,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1682</v>
+        <v>159</v>
       </c>
       <c r="K84">
         <v>585</v>
@@ -3806,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>3618</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>2070</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86">
@@ -3892,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>2482</v>
+        <v>1037</v>
       </c>
       <c r="K87">
         <v>185</v>
@@ -3929,13 +3939,13 @@
         <v>4229</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>3130</v>
+        <v>479</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -3978,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3986</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4021,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2562</v>
+        <v>1011</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4064,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>4839</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4162,11 +4172,19 @@
       <c r="E94">
         <v>3</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G94">
+        <v>7083</v>
+      </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4197,16 +4215,8 @@
       <c r="E95">
         <v>4</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G95">
-        <v>9653</v>
-      </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4439,19 +4449,11 @@
       <c r="E101">
         <v>4</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G101">
-        <v>8847</v>
-      </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4540,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>2605</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>721</v>
@@ -4583,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>2933</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>793</v>
@@ -4626,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>1974</v>
+        <v>153</v>
       </c>
       <c r="K105">
         <v>1215</v>
@@ -4672,7 +4674,7 @@
         <v>2831</v>
       </c>
       <c r="K106">
-        <v>1229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4712,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="J107">
-        <v>2016</v>
+        <v>649</v>
       </c>
       <c r="K107">
         <v>923</v>
@@ -4755,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>3298</v>
+        <v>1283</v>
       </c>
       <c r="K108">
-        <v>1892</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109">
@@ -4798,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2548</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>1508</v>
@@ -4844,7 +4846,7 @@
         <v>438</v>
       </c>
       <c r="K110">
-        <v>1998</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111">
@@ -4878,7 +4880,7 @@
         <v>4725</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4965,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>1457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5005,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>2395</v>
+        <v>775</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5039,10 +5041,10 @@
         </is>
       </c>
       <c r="G115">
-        <v>7691</v>
+        <v>5291</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5168,10 +5170,10 @@
         </is>
       </c>
       <c r="G118">
-        <v>9305</v>
+        <v>6145</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5180,7 +5182,7 @@
         <v>858</v>
       </c>
       <c r="K118">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5263,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>2411</v>
+        <v>820</v>
       </c>
       <c r="K120">
         <v>1328</v>
@@ -5395,7 +5397,7 @@
         <v>1458</v>
       </c>
       <c r="K123">
-        <v>1812</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124">
@@ -5438,7 +5440,7 @@
         <v>1177</v>
       </c>
       <c r="K124">
-        <v>1355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5478,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>2695</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5564,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>2647</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>1984</v>
+        <v>897</v>
       </c>
     </row>
     <row r="128">
@@ -5696,7 +5698,7 @@
         <v>435</v>
       </c>
       <c r="K130">
-        <v>2193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5739,7 +5741,7 @@
         <v>359</v>
       </c>
       <c r="K131">
-        <v>2702</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132">
@@ -5908,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>2853</v>
+        <v>1986</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -6123,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1668</v>
+        <v>361</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6166,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="J141">
-        <v>1894</v>
+        <v>681</v>
       </c>
       <c r="K141">
         <v>205</v>
@@ -6381,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>2846</v>
+        <v>1933</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6562,7 +6564,7 @@
         <v>861</v>
       </c>
       <c r="K152">
-        <v>1340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6645,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>1425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6688,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="J155">
-        <v>2311</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <v>333</v>
@@ -6731,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>3475</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -6774,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>3760</v>
+        <v>985</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -7087,19 +7089,11 @@
       <c r="E165">
         <v>2</v>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G165">
-        <v>7923</v>
-      </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -7130,19 +7124,11 @@
       <c r="E166">
         <v>3</v>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G166">
-        <v>7849</v>
-      </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -7370,13 +7356,13 @@
         </is>
       </c>
       <c r="G172">
-        <v>8697</v>
+        <v>5903</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7500,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="K175">
         <v>433</v>
@@ -7616,17 +7602,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G178">
-        <v>6949</v>
+        <v>8725</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>1406</v>
@@ -7672,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>3050</v>
+        <v>1125</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -7715,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="J180">
-        <v>2457</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <v>1728</v>
@@ -7758,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>3216</v>
+        <v>1423</v>
       </c>
       <c r="K181">
         <v>733</v>
@@ -7801,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J182">
-        <v>2677</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <v>808</v>
@@ -7844,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>3982</v>
+        <v>0</v>
       </c>
       <c r="K183">
         <v>861</v>
@@ -7930,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="J185">
-        <v>2571</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <v>2756</v>
@@ -7973,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>4840</v>
+        <v>327</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -8008,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>2547</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>1103</v>
@@ -8051,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>3299</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>896</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="189">
@@ -8085,10 +8071,10 @@
         </is>
       </c>
       <c r="G189">
-        <v>9393</v>
+        <v>5421</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -8097,7 +8083,7 @@
         <v>1328</v>
       </c>
       <c r="K189">
-        <v>1225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -8390,7 +8376,7 @@
         <v>189</v>
       </c>
       <c r="K196">
-        <v>734</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="197">
@@ -8551,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="J200">
-        <v>2492</v>
+        <v>899</v>
       </c>
       <c r="K200">
         <v>611</v>
@@ -8637,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>2872</v>
+        <v>0</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -8723,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>2352</v>
+        <v>233</v>
       </c>
       <c r="K204">
         <v>1071</v>
@@ -8766,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>3078</v>
+        <v>697</v>
       </c>
       <c r="K205">
         <v>1367</v>
@@ -8809,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="J206">
-        <v>2574</v>
+        <v>327</v>
       </c>
       <c r="K206">
         <v>307</v>
@@ -8852,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>3094</v>
+        <v>995</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -8898,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>2608</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="209">
@@ -8984,7 +8970,7 @@
         <v>2149</v>
       </c>
       <c r="K210">
-        <v>1957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -9019,7 +9005,7 @@
         <v>993</v>
       </c>
       <c r="K211">
-        <v>2503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -9062,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="K212">
-        <v>4700</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="213">
@@ -9148,7 +9134,7 @@
         <v>677</v>
       </c>
       <c r="K214">
-        <v>1698</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215">
@@ -9191,7 +9177,7 @@
         <v>783</v>
       </c>
       <c r="K215">
-        <v>2095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -9231,10 +9217,10 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>2506</v>
+        <v>1077</v>
       </c>
       <c r="K216">
-        <v>1831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -9446,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>2926</v>
+        <v>417</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9535,7 +9521,7 @@
         <v>2497</v>
       </c>
       <c r="K223">
-        <v>1960</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224">
@@ -9566,10 +9552,10 @@
         </is>
       </c>
       <c r="G224">
-        <v>6319</v>
+        <v>5021</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -9704,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="J227">
-        <v>2223</v>
+        <v>0</v>
       </c>
       <c r="K227">
         <v>427</v>
@@ -9820,17 +9806,17 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G230">
-        <v>8133</v>
+        <v>6661</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230">
         <v>689</v>
@@ -9879,7 +9865,7 @@
         <v>1329</v>
       </c>
       <c r="K231">
-        <v>2267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -9922,7 +9908,7 @@
         <v>1929</v>
       </c>
       <c r="K232">
-        <v>2048</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="233">
@@ -9954,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>2326</v>
+        <v>971</v>
       </c>
       <c r="K233">
         <v>3495</v>
@@ -10000,7 +9986,7 @@
         <v>2110</v>
       </c>
       <c r="K234">
-        <v>3405</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="235">
@@ -10077,13 +10063,13 @@
         <v>5099</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236">
-        <v>1608</v>
+        <v>455</v>
       </c>
       <c r="K236">
         <v>863</v>
@@ -10169,10 +10155,10 @@
         <v>1</v>
       </c>
       <c r="J238">
-        <v>1914</v>
+        <v>801</v>
       </c>
       <c r="K238">
-        <v>2355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -10215,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>2981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -10255,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>3533</v>
+        <v>1140</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -10298,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>4812</v>
+        <v>243</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -10427,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>1315</v>
+        <v>0</v>
       </c>
       <c r="K244">
         <v>927</v>
@@ -10556,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <v>4203</v>
+        <v>0</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -10841,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>2373</v>
+        <v>770</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -10919,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <v>1491</v>
+        <v>0</v>
       </c>
       <c r="K256">
         <v>2140</v>
@@ -10962,10 +10948,10 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>1877</v>
+        <v>522</v>
       </c>
       <c r="K257">
-        <v>2073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -11005,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="K258">
-        <v>1333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -11048,10 +11034,10 @@
         <v>1</v>
       </c>
       <c r="J259">
-        <v>1860</v>
+        <v>237</v>
       </c>
       <c r="K259">
-        <v>3805</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="260">
@@ -11094,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="K260">
-        <v>2940</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="261">
@@ -11169,10 +11155,10 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>2632</v>
+        <v>699</v>
       </c>
       <c r="K262">
-        <v>2113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -11290,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>5651</v>
+        <v>0</v>
       </c>
       <c r="K265">
         <v>453</v>
@@ -11333,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>3407</v>
+        <v>1058</v>
       </c>
       <c r="K266">
         <v>157</v>
@@ -11419,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>1139</v>
+        <v>0</v>
       </c>
       <c r="K268">
         <v>0</v>
@@ -11892,10 +11878,10 @@
         <v>1</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280">
-        <v>2232</v>
+        <v>631</v>
       </c>
       <c r="K280">
         <v>535</v>
@@ -11941,7 +11927,7 @@
         <v>591</v>
       </c>
       <c r="K281">
-        <v>2373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282">
@@ -11984,7 +11970,7 @@
         <v>739</v>
       </c>
       <c r="K282">
-        <v>3096</v>
+        <v>705</v>
       </c>
     </row>
     <row r="283">
@@ -12027,7 +12013,7 @@
         <v>1087</v>
       </c>
       <c r="K283">
-        <v>1820</v>
+        <v>533</v>
       </c>
     </row>
     <row r="284">
@@ -12067,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>4178</v>
+        <v>713</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -12110,10 +12096,10 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>2293</v>
+        <v>1224</v>
       </c>
       <c r="K285">
-        <v>1057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -12153,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <v>2419</v>
+        <v>1280</v>
       </c>
       <c r="K286">
         <v>261</v>
@@ -12397,7 +12383,7 @@
         <v>6363</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -12532,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -12598,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="J297">
-        <v>2800</v>
+        <v>1045</v>
       </c>
       <c r="K297">
         <v>1120</v>
@@ -12749,17 +12735,17 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G301">
-        <v>6979</v>
+        <v>8595</v>
       </c>
       <c r="H301">
         <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301">
         <v>197</v>
@@ -12796,16 +12782,16 @@
         </is>
       </c>
       <c r="G302">
-        <v>7205</v>
+        <v>6019</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>0</v>
       </c>
       <c r="J302">
-        <v>3847</v>
+        <v>1070</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -13177,12 +13163,6 @@
       <c r="E311">
         <v>3</v>
       </c>
-      <c r="H311">
-        <v>0</v>
-      </c>
-      <c r="I311">
-        <v>0</v>
-      </c>
       <c r="J311">
         <v>0</v>
       </c>
@@ -13219,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <v>4091</v>
+        <v>0</v>
       </c>
       <c r="K312">
         <v>449</v>
@@ -13262,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="J313">
-        <v>3436</v>
+        <v>161</v>
       </c>
       <c r="K313">
         <v>1563</v>
@@ -13377,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <v>2200</v>
+        <v>1009</v>
       </c>
       <c r="K316">
         <v>445</v>
@@ -13412,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>3405</v>
+        <v>0</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -13570,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="J321">
-        <v>1618</v>
+        <v>369</v>
       </c>
       <c r="K321">
         <v>743</v>
@@ -13702,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="K324">
-        <v>1935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -13785,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="J326">
-        <v>3497</v>
+        <v>971</v>
       </c>
       <c r="K326">
         <v>0</v>
@@ -13978,7 +13958,7 @@
         <v>5355</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -14012,19 +13992,11 @@
       <c r="E332">
         <v>6</v>
       </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G332">
-        <v>6019</v>
-      </c>
       <c r="H332">
         <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332">
         <v>1407</v>
@@ -14070,10 +14042,10 @@
         <v>1</v>
       </c>
       <c r="J333">
-        <v>1524</v>
+        <v>153</v>
       </c>
       <c r="K333">
-        <v>1209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -14113,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="J334">
-        <v>2476</v>
+        <v>691</v>
       </c>
       <c r="K334">
         <v>1810</v>
@@ -14156,7 +14128,7 @@
         <v>1</v>
       </c>
       <c r="J335">
-        <v>3379</v>
+        <v>0</v>
       </c>
       <c r="K335">
         <v>665</v>
@@ -14202,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="K336">
-        <v>2493</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="337">
@@ -14242,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="J337">
-        <v>4218</v>
+        <v>1025</v>
       </c>
       <c r="K337">
         <v>0</v>
@@ -14270,19 +14242,11 @@
       <c r="E338">
         <v>6</v>
       </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G338">
-        <v>9619</v>
-      </c>
       <c r="H338">
         <v>0</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338">
         <v>517</v>
@@ -14460,7 +14424,7 @@
         <v>1388</v>
       </c>
       <c r="K342">
-        <v>1926</v>
+        <v>697</v>
       </c>
     </row>
     <row r="343">
@@ -14503,7 +14467,7 @@
         <v>1647</v>
       </c>
       <c r="K343">
-        <v>1149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -14543,10 +14507,10 @@
         <v>2</v>
       </c>
       <c r="J344">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="K344">
-        <v>2255</v>
+        <v>635</v>
       </c>
     </row>
     <row r="345">
@@ -14616,17 +14580,17 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G346">
-        <v>7689</v>
+        <v>5855</v>
       </c>
       <c r="H346">
         <v>1</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346">
         <v>1255</v>
@@ -14672,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="J347">
-        <v>4145</v>
+        <v>0</v>
       </c>
       <c r="K347">
         <v>0</v>
@@ -14796,7 +14760,7 @@
         <v>480</v>
       </c>
       <c r="K350">
-        <v>4517</v>
+        <v>562</v>
       </c>
     </row>
     <row r="351">
@@ -14850,16 +14814,16 @@
         </is>
       </c>
       <c r="G352">
-        <v>9683</v>
+        <v>7741</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352">
         <v>0</v>
       </c>
       <c r="J352">
-        <v>4167</v>
+        <v>1024</v>
       </c>
       <c r="K352">
         <v>0</v>
@@ -14902,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="J353">
-        <v>4692</v>
+        <v>1127</v>
       </c>
       <c r="K353">
         <v>0</v>
@@ -14945,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <v>3972</v>
+        <v>0</v>
       </c>
       <c r="K354">
         <v>1581</v>
@@ -14991,7 +14955,7 @@
         <v>1210</v>
       </c>
       <c r="K355">
-        <v>2225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -15091,7 +15055,7 @@
         <v>4291</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358">
         <v>0</v>
@@ -15140,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="J359">
-        <v>3993</v>
+        <v>0</v>
       </c>
       <c r="K359">
         <v>0</v>
